--- a/app/storage/reports/excels/ex.xlsx
+++ b/app/storage/reports/excels/ex.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Histórico" sheetId="1" r:id="rId4"/>
-    <sheet name="Muestras" sheetId="2" r:id="rId5"/>
+    <sheet name="Comunas" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -16,9 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>center lat</t>
+  </si>
+  <si>
+    <t>center lng</t>
   </si>
   <si>
     <t>value</t>
@@ -27,25 +35,139 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>2016-02-14</t>
-  </si>
-  <si>
-    <t>2016-02-15</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>user id</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lng</t>
-  </si>
-  <si>
-    <t>cell id</t>
+    <t>San Bernardo</t>
+  </si>
+  <si>
+    <t>El Bosque</t>
+  </si>
+  <si>
+    <t>Pedro Aguirre Cerda</t>
+  </si>
+  <si>
+    <t>Lo Espejo</t>
+  </si>
+  <si>
+    <t>San Ramon</t>
+  </si>
+  <si>
+    <t>La Cisterna</t>
+  </si>
+  <si>
+    <t>Maipu</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Recoleta</t>
+  </si>
+  <si>
+    <t>Independencia</t>
+  </si>
+  <si>
+    <t>Conchali</t>
+  </si>
+  <si>
+    <t>Huechuraba</t>
+  </si>
+  <si>
+    <t>Providencia</t>
+  </si>
+  <si>
+    <t>Ñuñoa</t>
+  </si>
+  <si>
+    <t>San Joaquin</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>La Granja</t>
+  </si>
+  <si>
+    <t>La Florida</t>
+  </si>
+  <si>
+    <t>Peñalolen</t>
+  </si>
+  <si>
+    <t>Macul</t>
+  </si>
+  <si>
+    <t>Las Condes</t>
+  </si>
+  <si>
+    <t>La Reina</t>
+  </si>
+  <si>
+    <t>Lo Barnechea</t>
+  </si>
+  <si>
+    <t>Estacion Central</t>
+  </si>
+  <si>
+    <t>Lo Prado</t>
+  </si>
+  <si>
+    <t>Quinta Normal</t>
+  </si>
+  <si>
+    <t>Cerro Navia</t>
+  </si>
+  <si>
+    <t>Pudahuel</t>
+  </si>
+  <si>
+    <t>Renca</t>
+  </si>
+  <si>
+    <t>Quilicura</t>
+  </si>
+  <si>
+    <t>Cerrillos</t>
+  </si>
+  <si>
+    <t>La Pintana</t>
+  </si>
+  <si>
+    <t>Puente Alto</t>
+  </si>
+  <si>
+    <t>Padre Hurtado</t>
+  </si>
+  <si>
+    <t>Calera de Tango</t>
+  </si>
+  <si>
+    <t>Peñaflor</t>
+  </si>
+  <si>
+    <t>Talagante</t>
+  </si>
+  <si>
+    <t>El Monte</t>
+  </si>
+  <si>
+    <t>Isla de Maipo</t>
+  </si>
+  <si>
+    <t>Buin</t>
+  </si>
+  <si>
+    <t>Paine</t>
+  </si>
+  <si>
+    <t>Pirque</t>
+  </si>
+  <si>
+    <t>San Jose Maipo</t>
+  </si>
+  <si>
+    <t>Lampa</t>
+  </si>
+  <si>
+    <t>Vitacura</t>
   </si>
 </sst>
 </file>
@@ -384,69 +506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>510</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>800</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,69 +514,924 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2">
-        <v>510</v>
+        <v>-33.557418</v>
       </c>
       <c r="D2">
-        <v>-33.4483072</v>
+        <v>-70.7547</v>
       </c>
       <c r="E2">
-        <v>-70.6278272</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3">
-        <v>800</v>
+        <v>-33.5823</v>
       </c>
       <c r="D3">
-        <v>-33.4483072</v>
+        <v>-70.67668</v>
       </c>
       <c r="E3">
-        <v>-70.6278272</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>-33.501896</v>
+      </c>
+      <c r="D4">
+        <v>-70.695391</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>-33.50211</v>
+      </c>
+      <c r="D5">
+        <v>-70.69539</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>-33.555379</v>
+      </c>
+      <c r="D6">
+        <v>-70.63179</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>-33.539034</v>
+      </c>
+      <c r="D7">
+        <v>-70.685005</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>-33.509411</v>
+      </c>
+      <c r="D8">
+        <v>-70.723972</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>-33.477129</v>
+      </c>
+      <c r="D9">
+        <v>-70.685778</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>-33.435703</v>
+      </c>
+      <c r="D10">
+        <v>-70.63543799999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>-33.43017</v>
+      </c>
+      <c r="D11">
+        <v>-70.651746</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>-33.402892</v>
+      </c>
+      <c r="D12">
+        <v>-70.681872</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>-33.366521</v>
+      </c>
+      <c r="D13">
+        <v>-70.68251600000001</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>-33.412028</v>
+      </c>
+      <c r="D14">
+        <v>-70.606899</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>-33.449848</v>
+      </c>
+      <c r="D15">
+        <v>-70.63149</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>-33.477738</v>
+      </c>
+      <c r="D16">
+        <v>-70.641918</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>-33.477702</v>
+      </c>
+      <c r="D17">
+        <v>-70.64209</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>-33.5496021</v>
+      </c>
+      <c r="D18">
+        <v>-70.61392909999999</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>-33.510449</v>
+      </c>
+      <c r="D19">
+        <v>-70.611448</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>-33.45905</v>
+      </c>
+      <c r="D20">
+        <v>-70.572352</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>-33.467249</v>
+      </c>
+      <c r="D21">
+        <v>-70.626383</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>-33.41475</v>
+      </c>
+      <c r="D22">
+        <v>-70.607586</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>-33.431656</v>
+      </c>
+      <c r="D23">
+        <v>-70.58398200000001</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>-33.374692</v>
+      </c>
+      <c r="D24">
+        <v>-70.529995</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>-33.4444</v>
+      </c>
+      <c r="D25">
+        <v>-70.69204000000001</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>-33.455434</v>
+      </c>
+      <c r="D26">
+        <v>-70.706034</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>-33.439249</v>
+      </c>
+      <c r="D27">
+        <v>-70.691743</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>-33.4338</v>
+      </c>
+      <c r="D28">
+        <v>-70.72105000000001</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>-33.45332</v>
+      </c>
+      <c r="D29">
+        <v>-70.73929</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>-33.4029727</v>
+      </c>
+      <c r="D30">
+        <v>-70.7363579</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>-33.36623</v>
+      </c>
+      <c r="D31">
+        <v>-70.70036</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>-33.47813</v>
+      </c>
+      <c r="D32">
+        <v>-70.68568999999999</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>-33.555093</v>
+      </c>
+      <c r="D33">
+        <v>-70.65475000000001</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>-33.547547</v>
+      </c>
+      <c r="D34">
+        <v>-70.56741700000001</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>-33.578658</v>
+      </c>
+      <c r="D35">
+        <v>-70.773239</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>-33.604898</v>
+      </c>
+      <c r="D36">
+        <v>-70.78834500000001</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>-33.588883</v>
+      </c>
+      <c r="D37">
+        <v>-70.89134199999999</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>-33.639776</v>
+      </c>
+      <c r="D38">
+        <v>-70.915375</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>-33.67864</v>
+      </c>
+      <c r="D39">
+        <v>-71.042404</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>-33.729194</v>
+      </c>
+      <c r="D40">
+        <v>-70.88069900000001</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>-33.70949</v>
+      </c>
+      <c r="D41">
+        <v>-70.7547</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>-33.779147</v>
+      </c>
+      <c r="D42">
+        <v>-70.745773</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>-33.658067</v>
+      </c>
+      <c r="D43">
+        <v>-70.62973</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>-33.606041</v>
+      </c>
+      <c r="D44">
+        <v>-70.35987900000001</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>-33.312168</v>
+      </c>
+      <c r="D45">
+        <v>-70.88928199999999</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>-33.40995</v>
+      </c>
+      <c r="D46">
+        <v>-70.60638400000001</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
